--- a/data/trans_dic/P17G_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P17G_R-Provincia-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.6105374452026359</v>
+        <v>0.6279004901773372</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.9003947147746812</v>
+        <v>0.9065629826964847</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.6383543017576156</v>
+        <v>0.6295818662660959</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.8092701625390915</v>
+        <v>0.809751051498079</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.7997733754845123</v>
+        <v>0.7921038256188678</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.9270658176864116</v>
+        <v>0.9329401720506969</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.8633226548070023</v>
+        <v>0.867278386421929</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.8323323755835693</v>
+        <v>0.8296854523399539</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.761660313357279</v>
+        <v>0.7627296278543877</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.9355452048934123</v>
+        <v>0.9377103361084878</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.7907989759690656</v>
+        <v>0.7996327406982229</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.8470806996821516</v>
+        <v>0.8472636169659142</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8601962457570295</v>
+        <v>0.869482613009776</v>
       </c>
       <c r="D6" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8559848888899814</v>
+        <v>0.8499665905800998</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.9627036538733408</v>
+        <v>0.9629488037682794</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.9542195870081852</v>
+        <v>0.963651046404136</v>
       </c>
       <c r="H6" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.9700189341840629</v>
+        <v>0.9702111675533615</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.9366027934405693</v>
+        <v>0.9354457615207541</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.897588676253152</v>
+        <v>0.8984610690138587</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.9936635980542468</v>
+        <v>0.9937127358394274</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.9069547553030041</v>
+        <v>0.9113033334676239</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.934408728501006</v>
+        <v>0.9347156623522627</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.954276790243811</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.9018765040555401</v>
+        <v>0.9018765040555403</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.9083298089303056</v>
@@ -821,7 +821,7 @@
         <v>0.9649302306283077</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.9209730353211281</v>
+        <v>0.9209730353211282</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.9102311026214801</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.805472111313043</v>
+        <v>0.8188673394901437</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8305248986752647</v>
+        <v>0.825574832599502</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8848889521093259</v>
+        <v>0.8853215571847877</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.8265150095689952</v>
+        <v>0.8171472629285946</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.8469771490102891</v>
+        <v>0.8481572507348026</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.9067714409249303</v>
+        <v>0.9032512399412103</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.9309279086875875</v>
+        <v>0.930491776428248</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.8623052473715362</v>
+        <v>0.8660714019299097</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.8641570575823206</v>
+        <v>0.8638570096672086</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.8970674704442926</v>
+        <v>0.8945107931823663</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.9282792135980855</v>
+        <v>0.9317430001668187</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.8595877249325083</v>
+        <v>0.8600635738417137</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9654861119875665</v>
+        <v>0.9660122394801596</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9614617508597413</v>
+        <v>0.9629202772865888</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.989802455800501</v>
+        <v>0.9827629934759824</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.9595321997914174</v>
+        <v>0.959107211778669</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.951802083378296</v>
+        <v>0.9472334326384502</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.9800267203155427</v>
+        <v>0.9798020698712179</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.9881331687208612</v>
+        <v>0.987872454928865</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.9632425041534712</v>
+        <v>0.9591213185552409</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.9453578277917269</v>
+        <v>0.9459446756124515</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.9646835279434197</v>
+        <v>0.9610573466304579</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.9792803104176262</v>
+        <v>0.9789497774610125</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.9452435227925835</v>
+        <v>0.9452784941973792</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.9434902670961564</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.9122754858524526</v>
+        <v>0.9122754858524528</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.9528712587422257</v>
@@ -969,7 +969,7 @@
         <v>0.9260731245888173</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.9127039836070729</v>
+        <v>0.9127039836070727</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8198489408879034</v>
+        <v>0.8293454473123126</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8712410076728171</v>
+        <v>0.8674647086257133</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8218303948114604</v>
+        <v>0.8261955053881798</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.8190172474952636</v>
+        <v>0.8215777659911031</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.9074249718236971</v>
+        <v>0.9119867113285945</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.8977435785422704</v>
+        <v>0.9036721285323573</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.8886510537281582</v>
+        <v>0.881518845443143</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.8480271668958314</v>
+        <v>0.8495252070086846</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.9092937525257501</v>
+        <v>0.9084248572950616</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.9162281245421821</v>
+        <v>0.9151316400376448</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.8814403856796977</v>
+        <v>0.8799487417039181</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.8627395981549945</v>
+        <v>0.8664038844275275</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.982524694581802</v>
+        <v>0.9829452071749779</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9769282750377986</v>
+        <v>0.9769269860440846</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9515885339875819</v>
+        <v>0.9499640714310251</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9639430185302307</v>
+        <v>0.9669839547742657</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.990932561487069</v>
+        <v>0.9908467889928435</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.9928471629130554</v>
+        <v>0.9928507361355636</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.9807232296878696</v>
+        <v>0.980469558811449</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.9509817377793027</v>
+        <v>0.9553091906697442</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.9806205297422058</v>
+        <v>0.9806315340010657</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.9792589701633541</v>
+        <v>0.9790915161154741</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.9564105336493155</v>
+        <v>0.957043843292626</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.9469348470556664</v>
+        <v>0.9482240315519216</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.9478614514941665</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.8898614141690598</v>
+        <v>0.8898614141690601</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.9450790741490913</v>
@@ -1093,7 +1093,7 @@
         <v>0.8963844704856296</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.9130588874255515</v>
+        <v>0.9130588874255514</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.9454593843720301</v>
@@ -1105,7 +1105,7 @@
         <v>0.9167125875150979</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.9031824026704985</v>
+        <v>0.9031824026704987</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8569164509959893</v>
+        <v>0.8555395855590648</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.7768190150941504</v>
+        <v>0.7652918491826425</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8712153581028184</v>
+        <v>0.8681958343510001</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.7924886719053339</v>
+        <v>0.7844444692488947</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.8972369340203408</v>
+        <v>0.897122413252378</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.9226182674872974</v>
+        <v>0.9216636753464689</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.8254403307752045</v>
+        <v>0.8206856933548183</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.8634724407770767</v>
+        <v>0.8464384698536838</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.9019223236954667</v>
+        <v>0.9049609328306109</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.8879973142668309</v>
+        <v>0.8771474407879264</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.8667630120645804</v>
+        <v>0.8695592356088924</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.855170772580289</v>
+        <v>0.8569133182655526</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9825850956426881</v>
+        <v>0.9832114994612248</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9677458003082063</v>
+        <v>0.9577895773350273</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9889100065043073</v>
+        <v>0.9810402808171308</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9509923195678793</v>
+        <v>0.9490038068960982</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.9762091984678771</v>
+        <v>0.9772847090146881</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.9913522055869547</v>
+        <v>0.9912284046746952</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.9459627167837222</v>
+        <v>0.9444387258181045</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.9531058415918081</v>
+        <v>0.9528632173500038</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.9726497461698667</v>
+        <v>0.9726596598721637</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.9707849869037961</v>
+        <v>0.9676761371384613</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.9536110876776777</v>
+        <v>0.9506835100058343</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.9369226695485885</v>
+        <v>0.940713697817122</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.8415641419404424</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.9222933108758303</v>
+        <v>0.9222933108758304</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.9373731343456866</v>
@@ -1229,7 +1229,7 @@
         <v>0.9617620183153718</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.8609671105393216</v>
+        <v>0.8609671105393217</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.9308479171764661</v>
@@ -1241,7 +1241,7 @@
         <v>0.9178679593540242</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.8853412815768941</v>
+        <v>0.8853412815768937</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.8174871412000856</v>
+        <v>0.8161831116864537</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.7623158464318825</v>
+        <v>0.7794657704077408</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.6237696131471843</v>
+        <v>0.6342099439661203</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.7566777795386025</v>
+        <v>0.7331339378247791</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.8457400579682425</v>
+        <v>0.850484012398561</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.8662449412648646</v>
+        <v>0.8712268428657018</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.8821394860110703</v>
+        <v>0.8617490190463362</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.7383561686828326</v>
+        <v>0.734132893515396</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.8714638672254272</v>
+        <v>0.8696716760896853</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.8659944085994571</v>
+        <v>0.8659717221175678</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.8280198195297258</v>
+        <v>0.8190598162512063</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.7888081617326351</v>
+        <v>0.7815967197988326</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9793052391512365</v>
+        <v>0.9794819847189811</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9608741791526451</v>
+        <v>0.963378153266072</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9393380625648016</v>
+        <v>0.9633638972704122</v>
       </c>
       <c r="F18" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9809032081155882</v>
+        <v>0.9860626475268083</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.9696795554470506</v>
+        <v>0.9768759529087067</v>
       </c>
       <c r="I18" s="5" t="n">
         <v>1</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.9407470160330981</v>
+        <v>0.9415707636136064</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.9700121763158202</v>
+        <v>0.9692102254557731</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.9587284893993538</v>
+        <v>0.9589354485309658</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.9665636058302053</v>
+        <v>0.964467006689091</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.9401065399429481</v>
+        <v>0.9461629137625338</v>
       </c>
     </row>
     <row r="19">
@@ -1377,7 +1377,7 @@
         <v>0.9743135400690954</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.9519879545109992</v>
+        <v>0.951987954510999</v>
       </c>
     </row>
     <row r="20">
@@ -1388,34 +1388,34 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.811054269489475</v>
+        <v>0.8144153468720814</v>
       </c>
       <c r="D20" s="5" t="inlineStr"/>
       <c r="E20" s="5" t="n">
-        <v>0.9321820356490398</v>
+        <v>0.9352549611973825</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.9165598339009058</v>
+        <v>0.9227082308330974</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.890426450179598</v>
+        <v>0.8875587939866433</v>
       </c>
       <c r="H20" s="5" t="inlineStr"/>
       <c r="I20" s="5" t="n">
-        <v>0.9198178195577713</v>
+        <v>0.9215288787875455</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.8581129013488659</v>
+        <v>0.8675853621881464</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.8932355112778124</v>
+        <v>0.8908665154635027</v>
       </c>
       <c r="L20" s="5" t="inlineStr"/>
       <c r="M20" s="5" t="n">
-        <v>0.9475964323050284</v>
+        <v>0.9439314836119498</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.9150732822758733</v>
+        <v>0.9118111217005413</v>
       </c>
     </row>
     <row r="21">
@@ -1426,34 +1426,34 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.978721626616203</v>
+        <v>0.9791284244468841</v>
       </c>
       <c r="D21" s="5" t="inlineStr"/>
       <c r="E21" s="5" t="n">
         <v>1</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.9914749428840226</v>
+        <v>0.9912447310592118</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.9883748275813969</v>
+        <v>0.9882651522623636</v>
       </c>
       <c r="H21" s="5" t="inlineStr"/>
       <c r="I21" s="5" t="n">
-        <v>0.9918520309438195</v>
+        <v>0.9923341051503229</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.97075873553596</v>
+        <v>0.9714453229645512</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.9720980107725735</v>
+        <v>0.9721994948618804</v>
       </c>
       <c r="L21" s="5" t="inlineStr"/>
       <c r="M21" s="5" t="n">
-        <v>0.9912215322234571</v>
+        <v>0.9875406086787339</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.9775636563417827</v>
+        <v>0.9748654307724022</v>
       </c>
     </row>
     <row r="22">
@@ -1477,7 +1477,7 @@
         <v>0.9356246348994928</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.8286821523238105</v>
+        <v>0.8286821523238107</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.9423889848075923</v>
@@ -1489,7 +1489,7 @@
         <v>0.948745305190144</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.8422951844407321</v>
+        <v>0.842295184440732</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.9364434335922244</v>
@@ -1501,7 +1501,7 @@
         <v>0.9428766735384858</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.8368169455217158</v>
+        <v>0.8368169455217157</v>
       </c>
     </row>
     <row r="23">
@@ -1512,40 +1512,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.8720998283142104</v>
+        <v>0.8774034142746669</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.8689391823599548</v>
+        <v>0.871301693625498</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.8793262101845634</v>
+        <v>0.8765705793495804</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.7546038153198819</v>
+        <v>0.7437319487781844</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.9021640268003495</v>
+        <v>0.9001294334475408</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.886942579350691</v>
+        <v>0.8911214792625173</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.9066180929599031</v>
+        <v>0.9089500816631758</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.7956786371332626</v>
+        <v>0.7956323545463521</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.9063617461477367</v>
+        <v>0.90660096678445</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.8942686404511334</v>
+        <v>0.8966185429762654</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.9161491083010348</v>
+        <v>0.9120904593231326</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.7961447476711786</v>
+        <v>0.7933514977171328</v>
       </c>
     </row>
     <row r="24">
@@ -1556,40 +1556,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.960737116468963</v>
+        <v>0.9624760259636863</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.9524187646289035</v>
+        <v>0.9540134811709532</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9685276213390454</v>
+        <v>0.9699323571833953</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.8912286625198864</v>
+        <v>0.885702445644257</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.9688470404092202</v>
+        <v>0.969512244791837</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.9610810797599023</v>
+        <v>0.9633235121237661</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.9731639006753432</v>
+        <v>0.9747432667361118</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.8769431018097189</v>
+        <v>0.8829204324037264</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.9601870999217351</v>
+        <v>0.9589315536476399</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.9492128143315266</v>
+        <v>0.9519420237118625</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.9665924376179136</v>
+        <v>0.9665255392452053</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.8690420052542212</v>
+        <v>0.8720131217782514</v>
       </c>
     </row>
     <row r="25">
@@ -1625,7 +1625,7 @@
         <v>0.9178152965401628</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.9361174277568195</v>
+        <v>0.9361174277568193</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.9230310109656703</v>
@@ -1637,7 +1637,7 @@
         <v>0.9061237498529103</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.9291060732930931</v>
+        <v>0.9291060732930935</v>
       </c>
     </row>
     <row r="26">
@@ -1648,40 +1648,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.8450286307095595</v>
+        <v>0.8466219501763053</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.8812597615206638</v>
+        <v>0.8795610677613622</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.8434967272182389</v>
+        <v>0.8409059302980892</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.8595062587883683</v>
+        <v>0.8640983666450398</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.8942439400384887</v>
+        <v>0.9024556075796231</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.9255358040747106</v>
+        <v>0.9299274729296304</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.8770348125051187</v>
+        <v>0.8765275330812468</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.9028087190859556</v>
+        <v>0.9008745767531749</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.8923773685444846</v>
+        <v>0.8935265957535441</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.9231860161852271</v>
+        <v>0.9210111960790468</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.8771490565271555</v>
+        <v>0.8753524261009619</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.9000852941535427</v>
+        <v>0.8989949641355989</v>
       </c>
     </row>
     <row r="27">
@@ -1692,40 +1692,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.9379240722193827</v>
+        <v>0.9375850149432489</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.9736701431466633</v>
+        <v>0.9733998556866669</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.9275800925714142</v>
+        <v>0.9273041177497704</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.9563489103213718</v>
+        <v>0.9583043892872353</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.9657330321980476</v>
+        <v>0.9683514423486336</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.9855048723134324</v>
+        <v>0.9829061043731656</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.9521784039277454</v>
+        <v>0.9504625536783553</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.9616785946222564</v>
+        <v>0.9595280875278515</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.9451874431923935</v>
+        <v>0.9468775845850612</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.9725317955144769</v>
+        <v>0.9728546746076574</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.9304163620567113</v>
+        <v>0.9307343922973468</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.9501143734785276</v>
+        <v>0.9520507663608601</v>
       </c>
     </row>
     <row r="28">
@@ -1761,7 +1761,7 @@
         <v>0.9385739168882921</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>0.8987893859727295</v>
+        <v>0.8987893859727296</v>
       </c>
       <c r="K28" s="5" t="n">
         <v>0.9255609098621114</v>
@@ -1773,7 +1773,7 @@
         <v>0.927716306584884</v>
       </c>
       <c r="N28" s="5" t="n">
-        <v>0.8971046864213119</v>
+        <v>0.897104686421312</v>
       </c>
     </row>
     <row r="29">
@@ -1784,40 +1784,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.8804698146954999</v>
+        <v>0.8797487139837572</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.910344554450699</v>
+        <v>0.9090654613891606</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.8928107583081162</v>
+        <v>0.8904983171430891</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.8661708594258917</v>
+        <v>0.867901476092824</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.9208525527601105</v>
+        <v>0.920880321415508</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.9460039185220057</v>
+        <v>0.9456333259608901</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.9218481908009564</v>
+        <v>0.9208079793804357</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.8811835461371194</v>
+        <v>0.8779430478446073</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.9114757422732273</v>
+        <v>0.9129636946359428</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.9362223593425698</v>
+        <v>0.937644729713787</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.9156237564833581</v>
+        <v>0.915846107774912</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.8812035965012458</v>
+        <v>0.8810240313286459</v>
       </c>
     </row>
     <row r="30">
@@ -1828,40 +1828,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.9278268039867597</v>
+        <v>0.9269419439024092</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.9490563876502506</v>
+        <v>0.949592140563198</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.9324512523318048</v>
+        <v>0.9310421632834623</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.9178605162390667</v>
+        <v>0.9177478982190281</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.9514194172536717</v>
+        <v>0.9524752625553232</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.9700121417515931</v>
+        <v>0.9702754502164166</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.9522301568357082</v>
+        <v>0.952406354685973</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.914613535190677</v>
+        <v>0.913989103178834</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.9382894552028648</v>
+        <v>0.938168914600453</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.9579819243738011</v>
+        <v>0.9581880812185458</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.9390787007966297</v>
+        <v>0.9397533258770207</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.9108826132926011</v>
+        <v>0.9110511662992901</v>
       </c>
     </row>
     <row r="31">
@@ -2136,40 +2136,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>30167</v>
+        <v>31025</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>55612</v>
+        <v>55993</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>43884</v>
+        <v>43281</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>52759</v>
+        <v>52790</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>52939</v>
+        <v>52431</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>87851</v>
+        <v>88407</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>80893</v>
+        <v>81264</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>67735</v>
+        <v>67520</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>88049</v>
+        <v>88173</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>146437</v>
+        <v>146776</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>128461</v>
+        <v>129896</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>124158</v>
+        <v>124185</v>
       </c>
     </row>
     <row r="7">
@@ -2180,40 +2180,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>42502</v>
+        <v>42961</v>
       </c>
       <c r="D7" s="6" t="n">
         <v>61764</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>58845</v>
+        <v>58431</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>62762</v>
+        <v>62778</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>63162</v>
+        <v>63786</v>
       </c>
       <c r="H7" s="6" t="n">
         <v>94762</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>90891</v>
+        <v>90909</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>76221</v>
+        <v>76127</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>103763</v>
+        <v>103864</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>155534</v>
+        <v>155542</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>147330</v>
+        <v>148037</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>136958</v>
+        <v>137003</v>
       </c>
     </row>
     <row r="8">
@@ -2316,40 +2316,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>71739</v>
+        <v>72932</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>86143</v>
+        <v>85629</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>97025</v>
+        <v>97072</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>70160</v>
+        <v>69365</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>112014</v>
+        <v>112170</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>140932</v>
+        <v>140385</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>167278</v>
+        <v>167200</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>87373</v>
+        <v>87755</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>191251</v>
+        <v>191185</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>232469</v>
+        <v>231806</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>268585</v>
+        <v>269587</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>160066</v>
+        <v>160154</v>
       </c>
     </row>
     <row r="11">
@@ -2360,40 +2360,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>85990</v>
+        <v>86037</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>99724</v>
+        <v>99875</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>108528</v>
+        <v>107756</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>81452</v>
+        <v>81416</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>125877</v>
+        <v>125273</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>152318</v>
+        <v>152283</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>177558</v>
+        <v>177511</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>97601</v>
+        <v>97183</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>209222</v>
+        <v>209352</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>249991</v>
+        <v>249051</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>283341</v>
+        <v>283245</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>176016</v>
+        <v>176022</v>
       </c>
     </row>
     <row r="12">
@@ -2496,40 +2496,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>44716</v>
+        <v>45234</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>69934</v>
+        <v>69631</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>59608</v>
+        <v>59925</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>52458</v>
+        <v>52622</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>91209</v>
+        <v>91667</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>124908</v>
+        <v>125732</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>91094</v>
+        <v>90363</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>66367</v>
+        <v>66485</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>140991</v>
+        <v>140857</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>201024</v>
+        <v>200784</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>154286</v>
+        <v>154025</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>122777</v>
+        <v>123299</v>
       </c>
     </row>
     <row r="15">
@@ -2540,40 +2540,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>53589</v>
+        <v>53612</v>
       </c>
       <c r="D15" s="6" t="n">
         <v>78417</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>69020</v>
+        <v>68902</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>61741</v>
+        <v>61935</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>99603</v>
+        <v>99594</v>
       </c>
       <c r="H15" s="6" t="n">
         <v>138140</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>100532</v>
+        <v>100506</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>74425</v>
+        <v>74763</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>152051</v>
+        <v>152053</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>214853</v>
+        <v>214817</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>167409</v>
+        <v>167520</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>134759</v>
+        <v>134943</v>
       </c>
     </row>
     <row r="16">
@@ -2676,40 +2676,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>44102</v>
+        <v>44031</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>54308</v>
+        <v>53502</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>76292</v>
+        <v>76028</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>66590</v>
+        <v>65915</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>107598</v>
+        <v>107584</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>101169</v>
+        <v>101064</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>110761</v>
+        <v>110123</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>97859</v>
+        <v>95929</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>154578</v>
+        <v>155099</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>159453</v>
+        <v>157505</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>192209</v>
+        <v>192829</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>168776</v>
+        <v>169120</v>
       </c>
     </row>
     <row r="19">
@@ -2720,40 +2720,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>50570</v>
+        <v>50602</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>67656</v>
+        <v>66960</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>86599</v>
+        <v>85910</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>79909</v>
+        <v>79742</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>117068</v>
+        <v>117197</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>108706</v>
+        <v>108692</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>126933</v>
+        <v>126729</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>108017</v>
+        <v>107990</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>166700</v>
+        <v>166701</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>174319</v>
+        <v>173761</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>211468</v>
+        <v>210819</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>184910</v>
+        <v>185658</v>
       </c>
     </row>
     <row r="20">
@@ -2856,40 +2856,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>36555</v>
+        <v>36496</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>39634</v>
+        <v>40526</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>18200</v>
+        <v>18504</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>14748</v>
+        <v>14289</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>64380</v>
+        <v>64741</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>78863</v>
+        <v>79316</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>44742</v>
+        <v>43708</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>21816</v>
+        <v>21691</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>105307</v>
+        <v>105090</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>123865</v>
+        <v>123862</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>66155</v>
+        <v>65440</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>38681</v>
+        <v>38327</v>
       </c>
     </row>
     <row r="23">
@@ -2900,40 +2900,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>43791</v>
+        <v>43799</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>49958</v>
+        <v>50088</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>27407</v>
+        <v>28108</v>
       </c>
       <c r="F23" s="6" t="n">
         <v>19490</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>74669</v>
+        <v>75062</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>88280</v>
+        <v>88935</v>
       </c>
       <c r="I23" s="6" t="n">
         <v>50720</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>27796</v>
+        <v>27821</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>117215</v>
+        <v>117118</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>137129</v>
+        <v>137158</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>77225</v>
+        <v>77057</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>46100</v>
+        <v>46397</v>
       </c>
     </row>
     <row r="24">
@@ -3036,34 +3036,34 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>37214</v>
+        <v>37368</v>
       </c>
       <c r="D26" s="6" t="inlineStr"/>
       <c r="E26" s="6" t="n">
-        <v>97917</v>
+        <v>98240</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>46879</v>
+        <v>47194</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>77078</v>
+        <v>76830</v>
       </c>
       <c r="H26" s="6" t="inlineStr"/>
       <c r="I26" s="6" t="n">
-        <v>113142</v>
+        <v>113353</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>51208</v>
+        <v>51773</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>118305</v>
+        <v>117992</v>
       </c>
       <c r="L26" s="6" t="inlineStr"/>
       <c r="M26" s="6" t="n">
-        <v>216097</v>
+        <v>215261</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>101410</v>
+        <v>101049</v>
       </c>
     </row>
     <row r="27">
@@ -3074,34 +3074,34 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>44907</v>
+        <v>44925</v>
       </c>
       <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="n">
         <v>105041</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>50711</v>
+        <v>50699</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>85557</v>
+        <v>85547</v>
       </c>
       <c r="H27" s="6" t="inlineStr"/>
       <c r="I27" s="6" t="n">
-        <v>122003</v>
+        <v>122062</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>57930</v>
+        <v>57971</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>128750</v>
+        <v>128764</v>
       </c>
       <c r="L27" s="6" t="inlineStr"/>
       <c r="M27" s="6" t="n">
-        <v>226045</v>
+        <v>225206</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>108336</v>
+        <v>108037</v>
       </c>
     </row>
     <row r="28">
@@ -3204,40 +3204,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>123396</v>
+        <v>124146</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>145136</v>
+        <v>145531</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>131924</v>
+        <v>131510</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>122924</v>
+        <v>121153</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>194023</v>
+        <v>193585</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>196213</v>
+        <v>197137</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>168082</v>
+        <v>168514</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>192470</v>
+        <v>192459</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>323170</v>
+        <v>323255</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>347202</v>
+        <v>348114</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>307297</v>
+        <v>305935</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>322274</v>
+        <v>321143</v>
       </c>
     </row>
     <row r="31">
@@ -3248,40 +3248,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>135938</v>
+        <v>136184</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>159080</v>
+        <v>159346</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>145306</v>
+        <v>145517</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>145180</v>
+        <v>144280</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>208364</v>
+        <v>208507</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>212614</v>
+        <v>213110</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>180419</v>
+        <v>180712</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>212127</v>
+        <v>213573</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>342361</v>
+        <v>341914</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>368534</v>
+        <v>369593</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>324216</v>
+        <v>324194</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>351782</v>
+        <v>352985</v>
       </c>
     </row>
     <row r="32">
@@ -3384,40 +3384,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>151459</v>
+        <v>151744</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>136997</v>
+        <v>136733</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>186476</v>
+        <v>185903</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>136602</v>
+        <v>137332</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>225119</v>
+        <v>227186</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>203773</v>
+        <v>204740</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>239663</v>
+        <v>239524</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>199707</v>
+        <v>199279</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>384594</v>
+        <v>385089</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>346771</v>
+        <v>345954</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>433610</v>
+        <v>432722</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>342157</v>
+        <v>341742</v>
       </c>
     </row>
     <row r="35">
@@ -3428,40 +3428,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>168109</v>
+        <v>168048</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>151363</v>
+        <v>151321</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>205065</v>
+        <v>205004</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>151993</v>
+        <v>152304</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>243116</v>
+        <v>243775</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>216977</v>
+        <v>216404</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>260197</v>
+        <v>259728</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>212729</v>
+        <v>212253</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>407354</v>
+        <v>408082</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>365306</v>
+        <v>365428</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>459942</v>
+        <v>460099</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>361175</v>
+        <v>361911</v>
       </c>
     </row>
     <row r="36">
@@ -3564,40 +3564,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>577420</v>
+        <v>576947</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>699917</v>
+        <v>698933</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>753365</v>
+        <v>751414</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>598198</v>
+        <v>599394</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>965394</v>
+        <v>965423</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>1075154</v>
+        <v>1074733</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>1053179</v>
+        <v>1051991</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>816522</v>
+        <v>813520</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>1553318</v>
+        <v>1555854</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>1783850</v>
+        <v>1786560</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>1818683</v>
+        <v>1819125</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>1425121</v>
+        <v>1424831</v>
       </c>
     </row>
     <row r="39">
@@ -3608,40 +3608,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>608477</v>
+        <v>607897</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>729680</v>
+        <v>730092</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>786814</v>
+        <v>785625</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>633897</v>
+        <v>633819</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>997440</v>
+        <v>998546</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1102440</v>
+        <v>1102739</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>1087890</v>
+        <v>1088091</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>847499</v>
+        <v>846921</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1599013</v>
+        <v>1598808</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>1825310</v>
+        <v>1825703</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>1865271</v>
+        <v>1866611</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>1473119</v>
+        <v>1473392</v>
       </c>
     </row>
     <row r="40">
